--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -210,7 +210,6 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -546,7 +545,7 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -561,7 +560,7 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
@@ -576,7 +575,7 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -627,7 +626,7 @@
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -642,7 +641,7 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -112,7 +112,7 @@
     <t>2-3 synth chord samples (the active sample &amp; respective pentatonic samples from player_roll will change randomly)</t>
   </si>
   <si>
-    <t>May only need 1 chord sample depending on the effects gotten through FMOD pitch randomization</t>
+    <t>Merged with music_lowspeed</t>
   </si>
   <si>
     <t>music_lowspeed</t>
@@ -121,6 +121,9 @@
     <t>Synth chord backdrop that plays at low velocity / standstill</t>
   </si>
   <si>
+    <t>Ambient</t>
+  </si>
+  <si>
     <t>1 synth chord (lower pitched than above, pitch is constant until the transition to higher speed)</t>
   </si>
   <si>
@@ -137,6 +140,12 @@
   </si>
   <si>
     <t>High pitch short sound that plays when dashing to gain speed</t>
+  </si>
+  <si>
+    <t>speaker_hum</t>
+  </si>
+  <si>
+    <t>Low pitch hum that plays when near pulse machine</t>
   </si>
 </sst>
 </file>
@@ -149,13 +158,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,20 +179,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB45F06"/>
-        <bgColor rgb="FFB45F06"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,16 +203,16 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -467,10 +470,10 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -482,10 +485,10 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -497,10 +500,10 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -515,7 +518,7 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -530,7 +533,7 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -545,7 +548,7 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -554,13 +557,13 @@
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
@@ -575,7 +578,7 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -587,11 +590,11 @@
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -602,38 +605,38 @@
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -641,7 +644,22 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
